--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -10,17 +10,17 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -34,16 +34,28 @@
     <t xml:space="preserve">nilai</t>
   </si>
   <si>
-    <t xml:space="preserve">01782084500000005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">yanu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01782084500000006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deby</t>
+    <t xml:space="preserve">01782084500000007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilham Adi Setiawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01782084500000008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firlana Purti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01782084500000009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dani Sumantri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01782084500000010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lofita Soluna</t>
   </si>
 </sst>
 </file>
@@ -56,10 +68,8 @@
   <fonts count="6">
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -162,22 +172,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="35.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.87"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -191,25 +199,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="2" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -219,13 +227,41 @@
         <v>100</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normál"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normál"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="NilaiUNIPASMA" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -34,28 +34,28 @@
     <t xml:space="preserve">nilai</t>
   </si>
   <si>
-    <t xml:space="preserve">01782084500000007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilham Adi Setiawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01782084500000008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firlana Purti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01782084500000009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dani Sumantri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01782084500000010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lofita Soluna</t>
+    <t xml:space="preserve">CHERLIAN TRIANDINI P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NABELA SYAFA FEBRIYANTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHELSA ELFIYYAH DAMAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITANIA AYU NUGROHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DWI ZIYADATUL FARIHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AUDYSTA EURO LAWAISYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIARA VELISHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BINTANG INDAH MAULANA P</t>
   </si>
 </sst>
 </file>
@@ -65,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -85,19 +85,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Cambria"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,16 +129,8 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -172,87 +151,145 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.87"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="4.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="0" t="n">
+        <v>1782084500000020</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>100</v>
+      <c r="D2" s="0" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
+      <c r="B3" s="0" t="n">
+        <v>1782084500000020</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>100</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
+      <c r="B4" s="0" t="n">
+        <v>1782084500000020</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="0" t="n">
+        <v>1782084500000020</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1782084500000020</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1782084500000030</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1782084500000030</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="D8" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>1782084500000030</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>75</v>
+      <c r="D9" s="0" t="n">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
